--- a/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 59,79</t>
+          <t>9,57; 57,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 54,0</t>
+          <t>15,13; 52,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 69,36</t>
+          <t>8,87; 66,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,24; 80,91</t>
+          <t>10,22; 79,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 52,82</t>
+          <t>16,02; 51,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 55,78</t>
+          <t>21,16; 53,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 52,76</t>
+          <t>6,75; 50,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 51,31</t>
+          <t>11,04; 49,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 100,0</t>
+          <t>35,11; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 79,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 63,95</t>
+          <t>21,58; 64,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 50,28</t>
+          <t>14,34; 48,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,27 +906,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,67</t>
+          <t>0,0; 22,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 36,49</t>
+          <t>6,61; 38,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 88,17</t>
+          <t>17,92; 83,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 86,27</t>
+          <t>14,44; 86,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 36,34</t>
+          <t>9,07; 36,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 42,69</t>
+          <t>11,19; 42,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
     </row>
@@ -1015,27 +1016,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 26,9</t>
+          <t>2,93; 26,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 33,56</t>
+          <t>11,78; 35,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 49,87</t>
+          <t>6,65; 50,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 39,33</t>
+          <t>4,57; 39,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 25,41</t>
+          <t>6,25; 26,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 30,5</t>
+          <t>12,51; 31,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,76</t>
+          <t>0,0; 63,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 31,59</t>
+          <t>3,91; 29,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 40,45</t>
+          <t>4,43; 37,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 40,41</t>
+          <t>4,19; 37,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,75</t>
+          <t>0,68; 5,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 37,19</t>
+          <t>9,2; 37,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 29,58</t>
+          <t>6,98; 29,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,36</t>
+          <t>0,56; 3,74</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 58,01</t>
+          <t>22,95; 58,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 40,85</t>
+          <t>12,28; 40,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 58,01</t>
+          <t>22,95; 58,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 40,85</t>
+          <t>12,28; 40,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,45</t>
+          <t>9,37; 24,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,79; 30,59</t>
+          <t>16,66; 30,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,11</t>
+          <t>0,06; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,82; 45,92</t>
+          <t>25,98; 44,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,94; 36,66</t>
+          <t>18,27; 36,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,24</t>
+          <t>0,13; 1,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 32,96</t>
+          <t>19,65; 32,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,55; 30,48</t>
+          <t>19,23; 30,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,9</t>
+          <t>0,18; 0,9</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado otra prueba para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5339</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10141</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4929</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15069</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1832; 10957</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4682; 16120</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1465</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1187; 8829</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1134; 8858</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1046</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5212; 16761</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8892; 22496</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1284</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7478</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6126</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10287</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9502</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1096; 8160</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2974; 13243</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1511</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2917; 8308</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4240</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5295; 15863</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4628; 15798</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5872</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7945</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6497</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1929; 11132</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8687</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 9106</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1062; 6356</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1039</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3647; 14638</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4091; 15577</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8048</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10600</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7292</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14944</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1088</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1060; 9702</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5814; 17645</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3594</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>964; 7250</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1110; 9584</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1006</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3171; 13571</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9212; 22837</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3913</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4780</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4974</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7910</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5394</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>909; 6887</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3240</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1193; 10031</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1149; 10282</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>749; 5727</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3256; 13301</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3537; 14985</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>987; 6641</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12586</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9834</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12586</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9834</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1027</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7334; 18824</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4843; 15831</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1017</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7334; 18824</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4843; 15831</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36425</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>55175</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>66682</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10251; 27241</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26601; 47997</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>480; 8277</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27529; 47508</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20999; 41551</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>594; 5536</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42309; 69247</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52793; 83682</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2245; 11124</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
